--- a/web_Scraping_Project/ebayReviewiphonex.xlsx
+++ b/web_Scraping_Project/ebayReviewiphonex.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Best value iPhone X 256G</t>
+          <t xml:space="preserve">Great phone, great camera, big screen! </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fast service and best value !!!  Switched from a 5s to a iPhone X with lots of memory. SIM card fit and start up software was simple. Backup your old phone on iCloud and keep it close to your new phone. Software uses Bluetooth and WiFi to do the rest. Did it all myself without tech support. Now I can run lots of apps and take pictures without fear of filling up my phone. Yes it is much larger than a 5s but it fits in my pocket. I love it. Read full review...</t>
+          <t>The phone was advertised as used. I was pleasantly surprised by the excellent condition of the phone when I received it. It appeared to look brand new. I turned it on and it worked perfectly! It had been factory reset and ready for use. I would buy this phone again if necessary. Camera and size of the screen are much better, in my opinion, than the iPhone 6 that I had previously.  Read full review...</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -467,12 +467,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>It's a REAL beautiful, lovely little iPhone...</t>
+          <t>Not bad for the price.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>It's a REAL beautiful, lovely little iPhone, absolutely, no question!But is it WORTH the totally OBSCENE amount of money that Apple is asking (new and pre-owned, both)?Absolutely not. By no stretch of the imagination is this smartphone THAT much more superior to other smartphones.My wife wanted only this particular phone, so we bought it for her ("Happy Wife = a Happy Life").  But it is, in all honesty, ridiculously overpriced and over-hyped. In my honest opinion.  Best of luck to you with your decision...Read full review...</t>
+          <t>This is clearly a refurbished phone, which is fine, it was advertised as such. The screen was obviously replaced as the display is of much lower quality than an authentic Apple display. It has a blue tint to it and it’s not as bright. It is also harder to see from an angle. It works well enough though.Read full review...</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -485,12 +485,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beautiful phone</t>
+          <t>Good price for a factory new iPhone 8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I’m extremely pleased with this. Truly the best iPhone yet. I love the battery life, the cameras, the new gestures, the operative system, almost everything! There are some things that haven’t been addressed yet, like the compatibility of some apps with the new screen, or the absence of multitasking, but overall it’s a very smooth experience. I do not like the price tag though. If you can get a deal, you might be able to shave about $150 from the full retail price. Absolutely recommended. Read full review...</t>
+          <t>Bought this to replace my 94 year old father’s iPhone 5 with a smashed screen. He quite the techy! (Retired electrical engineer.). He loves it. Half the price when they came out. Four times the memory of his own phone and dramatically improved battery life.   Overall a good product for a great price. Read full review...</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,16 +503,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Overall a great Phone  </t>
+          <t xml:space="preserve">Wow....Just Wow! </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I bought the I Phone X out of the box. It had some barley noticeable imperfections on the screen. It was easy to set up and has a great display. The only thing is that the battery life is only 84% of when the phone was new. I would have expected a phone only a few years old to have greater battery capacity. Overall a great Phone  Read full review...</t>
+          <t>I ordered a used IPhone 8 not sure what to expect since it seemed like a good deal and was absolutely floored when it arrived. I got what seemed like a brand new phone that looks and operates flawlessly. The batter power packs a punch and the phone seems like it’s right off the shelves of an Apple store. Absolutely ecstatic I got this phone.Read full review...</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">IPhone X- love it. </t>
+          <t>Super easy upgrade from old iPhone</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I love this phone. I went form a 6 to an X and what a great product. The face recognition feature is amazing ( even in the dark). The size is perfect and the processor is very fast. The delivery was faster than expected too. Very happy. Read full review...</t>
+          <t>Upgraded from iPhone 4s to this iPhone 8 - so easy. The setup copied everything from the iPad and installed all the apps. Data (photos etc) was already on iCloud. After about 3 minutes it was all set. In the past it took hours; the screen is a good side, battery lasts a long time, does QR codes, all my apps work great - lightweight tooRead full review...</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -539,12 +539,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The New iPhone X</t>
+          <t>Good value phone.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>I was skeptical at first but the longer I have it, the better it gets. Facial ID set up in less than 30 seconds. The phone is blinding fast. Apple somehow figured out how to increase volume across the board so that is much better than my 7+. Battery life is better, too. After getting used to not having a control button, which didn’t take long at all, navigation is a snap. All in all, this is a phone that I can hold onto for a while - can’t imagine what’s coming next but I’ll be enjoying the X for months to come. I highly recommend the iPhone X. Read full review...</t>
+          <t>Perfect size.  Good for iPhone pants pocket.  All important features and the storage capacity is good.</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -557,12 +557,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Worth the wait </t>
+          <t>Great product.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>I had the iPhone 6s Plus before this bad boy. Although that phone was awesome, I'm glad I upgraded to the X. Went from a 64gb storage to 256gb. Happy to have purchased  a year after the release, as I got it heavily discounted on cyber Monday. Camera takes fast and clear photos, battery life is decent, and face ID is better than I thought it would be. The jury is still out on True Tone display but getting used to leaving that feature on, as it actually does help with reducing eye strain. I bought this phone refurbished in overall good condition. The back is made out of glass and was scratched a bit, so I bought a carbon fiber decal cutout, now looks like new. Read full review...</t>
+          <t>Awesome product! Looked brand new. Battery life isn’t as good as I’d hoped but it’s a used phone so I knew what I was getting.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -575,12 +575,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">IPhone X review </t>
+          <t>Great deal on a great phone</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">I love the navigation finally got rid of the annoying single point of failure home button battery life did not improve </t>
+          <t>Just right size for a phone. Great battery life. Very fast. Camera is excellent.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -593,16 +593,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CPO iPhone X</t>
+          <t>Excellent condition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phone works as intended; had to get AT&amp;T to unlock it however (easy, they have a website just for this).Overall, I am satisfied but wish battery life was a little better - adequate so far.</t>
+          <t>Space grey is a great color. The sound quality is good. Just the right size.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Great Buy, Brand Spankin New</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>I am not sure what a small form factor is but this phone is basically like brand new. There were scratches but they aren’t noticeable especially with a phone case and screen protector on. Awesome for the value!Read full review...</t>
+          <t>Just updated to a new iPhone 8It’s an excellent upgrade for me, good battery life, good size, and an excellent price!</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -629,16 +629,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cannot hear on this phone </t>
+          <t>Great Item!</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>I am not sure what to do- the phone’s volume is terrible. We bought two, and the phone’s speakers just can NOT be heard by either me or my husband.  We both can hear SOOO much better out of our iPhone 6. I am slightly hearing impaired, but even my husband, who hears well, has trouble hearing out of this phone, and it has no audio output jack to plug it into our (old-Bluetooth less) car or our portable speaker, so that it can be heard. Talking on the phone, or listening to a show or radio is a total exercise in frustration on this phone- I am sorely disappointed  :(. Read full review...</t>
+          <t>Very powerful, long last battery life &amp; excellent device. Thank you.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -647,12 +647,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>i phone 8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">I phone X is an open box find and is brand new. It was easy to set up from I cloud and it works like new. Very happy with the deal. </t>
+          <t>Very nice phone , battery lasts a lot longer than my 5 S . Larger in size than I like . Pretty much the same features .</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -665,12 +665,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Best camera, computer, phone, screen you can hold in your hand...in the WORLD! </t>
+          <t>A smaller phone with a good camera</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>I've never seen a better screen with such rich, true-to-life colors than what I've seen on the iPhone X Edition. A smartphone is all about the screen. You can tell when you hold this phone in your hand and look at the screen this is the best in the world. I doubt Apple is making as much profit on each of these due to it's high cost to manufacture such a brilliant device. They've already admitted that it's a very low price for what they are getting. This is the phone people will keep for years. Who needs the upgrade program... just buy it to keep. And at last Apple has a smartphone that can be in water up to 30 minutes and it won't be ruined. I'm still going to treat mine like gold, but it's nice to know it's not so fragile in rain or if I accidentally drop it in water briefly. Those days of worry are gone with the X edition. Love it! One more thing: long battery life and wireless charging!!! Read full review...</t>
+          <t>I wanted this phone because it is smaller than all of the new ones, and it fits my lifestyle (and hand) better than the new 10s. It also has a great camera.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -683,12 +683,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good value. </t>
+          <t>Minty Fresh</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thin profile, and good size screen. Lots of storage. Overall good phone for the money. </t>
+          <t>I was happy to find an iPhone 8 in such pristine condition. I could have waited for the new iPhone se that just came on the market. But I wanted a sure thing. A used phone in perfect condition.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -701,12 +701,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Great value phone</t>
+          <t>Moving on up!</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Great, clean-looking phone. Even though it’s older now it still performs well. Face ID is great.</t>
+          <t>I moved from a 7-year old iphone 6  to an iPhone 8 64GB. I’m quite happy with it—more storage, better camera, faster response. However, my preference would’ve been for Apple to keep the headphone jack in this model. I had to buy an adapter so I can use my beats headphones in my iPhone 8.Read full review...</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -719,12 +719,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>iPhone X is a good phone for a good price!</t>
+          <t>Great all around phone. Jumbo features in a small package.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I wanted a better phone with face id and a better camera its a good phone to have until the newest comes out and very affordable.  Only bad thing is that it is small but coming from the iPhone 6s plus that isn't so much a big deal.Read full review...</t>
+          <t>I like that it fits nicely in your pocket and has so many functions. I am hooked on iPhones.  The processor is so fast and I no longer have to plug my phone in to charge it.</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -737,12 +737,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Just do it</t>
+          <t>Grat replacement phone</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>I have had the XR for 1 month now and I can say it's all positive. The battery life last all day long and sometimes I don't even charge for 2 days. (im not on it all the time and I keep my brightness at the lowest pretty much all day but still good battery life) All the functions on the phone work amazingly and even the condition of the phone they sent me was top notch. My favorite part is the storage! If you are going to get an apple phone please don't go with anything under 128gb bc they eat up the storage. The 256 is amazing Im not even close to filling it up and I have loads of apps and over 15000 pics and videos. The camera and all the features are ace as well. I upgraded to this from an iPhone 7 with 64gb that I HATED. So I would say if you're on the fence just do it! You won't regret the upgrade!Read full review...</t>
+          <t>This was a great way of replacing my defective iPhone 6.  The product was new unopened and in perfect condition.  It came out of the box and once I installed my sim card it was up and running.  I also got a year of AppleTV+ when it was activated.  best of alll it was $200 cheaper than from ATT.Read full review...</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -755,12 +755,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>iPhone is an iPhone</t>
+          <t>GREAT VALUE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Its a great phone and has everything one expects from an iPhone, I am just not sure if it is worth the money though. One can get same or more features on phones that cost half of this.</t>
+          <t>Purchased this for my husband. He loves iPhones and it’s features. This phone in particular is the last to have a home button as well as fit comfortably in his pocket. The price is very reasonable compared to new phones.Read full review...</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -773,16 +773,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>More technical problems</t>
+          <t>Great value with a great camera.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>This phone does not have a great phobe speaker. This is the third time I’ve ordered an iPhone and it’s always been something wrong with it I feel that perhaps used phones are rejects The last phone I bought people had a hard time hearing it from previous to that in a bad battery that I had to replace I’m not sure buying a used phone is worth itRead full review...</t>
+          <t>The phone is really good for the price. And it seems like it's brand new.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -791,16 +791,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>It fit my need,</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Beginning of usage it has a problem with Bluetooth, I have went to Bluetooth access from apple,It appear want me to paid for using it. Would you look in to this. Thank you very much.</t>
+          <t>iPhone 6 to iPhone 8 I went! iPhone 8 is faster , better battery, better camera! Otherwise identical to iPhone 6</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -809,24 +809,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transfer from old iPhone to new</t>
+          <t>Great features.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>It didn’t go well. I still have problems with my FB messeges ringing on both phones. My husband is using my old iPhone. I had to go to the AT&amp;T store 3 times for help. Still having problems with pgms missingRead full review...</t>
+          <t>I haven't had the phone long enough to really tell. So far it has performed very well and the battery holds up well too. I think it is going to be avery good phone.</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Worth the buy!</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Have had no issues with it whatsoever! Practically brand new with little to nothing blemishes. Definitely worth the money and saves so much more than buying them from the carrier.</t>
+        </is>
+      </c>
       <c r="D23" t="n">
         <v>5</v>
       </c>
@@ -837,12 +845,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Great little phone, meets my needs</t>
+          <t>Saved hundreds for a new phone...a version behind.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Love it, good camera also!</t>
+          <t>So far so good.  Upgrading from my 5s was not too difficult.  I do need to buy adapters for headphones (lightning to 3.5mm)...but knew that going in.I don't need the latest and greatest because I primarily just use phone, text, and pictures...so getting a version behind and saving a few hundred works for me.Read full review...</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -855,12 +863,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Very good buy</t>
+          <t>Great phone!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arrival was quick.... phone is great for price..... very clean and looks brand new.... love it</t>
+          <t>I love this phone! The battery life is much better than my old iPhone 7, and I really like the sleek design. However, it does require a much more protective case.</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -873,16 +881,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Great size iphone</t>
+          <t>Good value</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Great phone, good as new for a lot less money</t>
+          <t>Small screen for typing but nice pocket size.  Heats up in warm weather and battery Often only lasts until late afternoon.  However, good $ value and I don’t need much more than basics .</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -891,12 +899,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Great Phone</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>This phones runs very well, with little to no issues. It also has a long battery life.</t>
+          <t>Very satisfied with my purchase, I received my iPhone 8 with a 1 year warranty from Apple, no scratches and in very good condition/ brand new.</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -909,12 +917,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Great purchase!</t>
+          <t>BEST smaller size phone.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Device is exactly as described and came earlier than expected. I love my new iPhone!</t>
+          <t>My son doesn't like any of the large phones, so this fits perfect in his pocket.</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -927,12 +935,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I’m very satisfied with my iPhone X</t>
+          <t>Perfect!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I’m very satisfied with my iPhone X purchase I love it very much</t>
+          <t>Just received- not a scratch on it- well packaged. It’s a Christmas gift so we won’t know about battery life until then!  Thank you!!</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -945,12 +953,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Phones look new and work great!</t>
+          <t>Exactly what i wanted!</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I purchased two iPhone X for my family.  It was really easy to upgrade and migrate data from previous iPhones to the X.  No issues and really happy with the phones.</t>
+          <t>The phone's been great so far and I'm really happy with it. It even arrived sooner than expected. I had no issues transferring my existing AT&amp;T number to it.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -963,12 +971,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Great price, picture and quality</t>
+          <t>Phone was great!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>This phone is awesome. The picture quality is outstanding and the battery life lasts long. Great price</t>
+          <t>So far this new phone is just what was needed!  New in every way and easy to get set up. Shipping was super fast!! Many thanks.</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -981,12 +989,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>Very Good product, good deal!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Great phone. Awesome display. Price included airbuds.</t>
+          <t>Very good product, clean and very limited wear of the screen. Battery has good life rated at 85% and running will, good delivery, happy with my purchase.</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -999,12 +1007,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple 1st</t>
+          <t>good ol apple quality in every iPhone</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>I’m still getting used to this type of phone.  Always own an Galaxy, this is my first Apple phone.</t>
+          <t>Like any other Apple product the iPhone easily exceeds their reputation as the rulers of the smartphone universe. While they may lack a few frills that the others may have the iPhone never fails to deliver on any operational aspect. Read full review...</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1017,12 +1025,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>iPhone x</t>
+          <t>Good product with continued improvements</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nice phone looks great works well Little small (for us old guys)This is refurbished done right Thanks Steve </t>
+          <t>Uses newer technology providing capability to add international roaming.</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1035,12 +1043,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Great Buy, It's Perfect!!</t>
+          <t>She loves it!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>It's a Great Deal!! It came earlier than Expected, it has Great Battery life, clean, clear, an not a scratch on it. It's the Best Bang For The Buck... For sure!!</t>
+          <t>I bought it for mu daughter-in-law for Christmas and she thinks it is awesome phone, all shiny and new out of the mfg unopened box.She called again last night to tell me how much she like it. She said it was a huge upgrade from the i phone 6 that she passed on to her Mom.Read full review...</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1053,12 +1061,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Great phone for a greater price</t>
+          <t>Great value.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>I was a bit skeptical when buying this phone because of how cheap(er) it was. Let me tell you when I say that I was beyond surprised at how good it looked. It was packaged very nice too. Battery life last for a whole day. Just amazing!!!Read full review...</t>
+          <t>So far this phone is working great.  The battery life is great.  It was a nice upgrade!!</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1071,12 +1079,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>Excellent buy!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Excelente todo muy buen producto llego a tiempo y tal cual como lo decía la descripción del iPhoneSaludos desde Panamá 🇵🇦Excellent all very good product arrived on time and as it was said in the description of the iPhone X. Greetings from PanamaRead full review...</t>
+          <t>It’s identical to the iPhone 7. I can reuse my case and transfer the screen from the 7 if ever damaged. It’s also the last model with a home button.</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1089,16 +1097,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Good phone for good price thank you</t>
+          <t xml:space="preserve">Good as a new phone </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Needed a new phone asap and this was mailed very quickly. Works great! </t>
+          <t xml:space="preserve">These are good when new. Operation is nice, nothing closing down randomly or freezing up. Battery life right now is two days but after a year will diminish as all iPhones are known to do. </t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1107,12 +1115,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Why new when excellent used is half the price</t>
+          <t>great condition</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>better than expected - "mint" really means flawless</t>
+          <t>wanted to wait to use it for a little to make sure it was all good and everything is working well</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1125,16 +1133,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">iPhone </t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The camera had  a scratch . Looks like broken. Was need it to replace it and to pay extra $120 . Bought as a present. Send it to my nephew. Don’t know yet how does it work...</t>
+          <t>No problems with it has a long battery life and it arrived a day early.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1143,16 +1151,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Problems after</t>
+          <t>Love it so much</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>The phone worked great then just died on me sent it into Apple to get fixed</t>
+          <t>Works great and has a better battery life than my previous device.</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1161,12 +1169,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Awesome!</t>
+          <t>Works like a charm</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Phone is great - excellent condition notA scratch on it.  Will be buying all my phones from here now...</t>
+          <t>Received my phone and exactly as stated for att . I inserted my old sim from my previous iPhone and set this one right up in the matter of maybe 20 minutes total! Perfect condition and I’m loving it!</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1179,16 +1187,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>Flawless</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">The phone is great. It does have a few surface scratches, but that was expected. The overall value is great. </t>
+          <t>I’ve owned 5 apples and bought more for others. Never had any problem other than battery life after 4-5 years of heavy use</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1197,12 +1205,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Awesome deal!!</t>
+          <t>Perfect Upgrade</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cosmetically like brand new not one single blemish awesome </t>
+          <t>Great buy for price and replaced my wife’s Apple 5C on the Att network. Easy transition and just great.</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1215,16 +1223,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Low battery life, but good value</t>
+          <t>it's great ,, we're just having trouble adapting to a Iphone</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Very thin line. Works great.  I wish the battery life was a bit longer, but otherwise I'm quite happy with it.</t>
+          <t>the phone is performing as others expect it ..  so by other persons judgement it is greatand they would do it also ..</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1233,12 +1241,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great product and works fine. </t>
+          <t>Awesome buy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Product was in great condition and worked perfectly. </t>
+          <t>Phone looks great ... works great ... delivered earlier than stated .... would definitely buy from again! Two thumbs up and a snap!</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1251,12 +1259,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>iPhone X is great</t>
+          <t>Great phone/great price!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Refurbished iPhone X worked well right from the start. I'm a satisfied purchaser.</t>
+          <t>Great phone for the value!  I upgraded from an iphone SE to this one, and so far i have been happy! love having a larger screen!</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1269,16 +1277,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Great value</t>
+          <t>great phone</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Renewed product, looks and works just like brand new.</t>
+          <t>the phone is great nice features work right out of the box easy to use better that iPhone 6</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1287,12 +1295,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The new iPhone is amazing</t>
+          <t>Just what I was looking for</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Literally the best phone I've ever used, amazing camera, super fast for gaming and apps, and beautiful to look at.  That screen!!</t>
+          <t>It's brand new and so far it works great.</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1305,16 +1313,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Broken screen</t>
+          <t>Love the phone works amazing</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Display not working well when purchased. Stopped working after a few days. No falls, no anything, just stopped working.</t>
+          <t>Awesome phone like brand new</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1323,12 +1331,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>iPhone X in better condition than expected</t>
+          <t>Good Value</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Excellent condition, good battery life. The iPhone X was in much better condition than expected. Very satisfyThanks</t>
+          <t>comes with 1-month warranty and 100% battery healthalmost no scratchbut cannot be unlocked for unpaid installment</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1341,12 +1349,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Iphone X</t>
+          <t>Brand new phone</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Love my new iPhone X. Shipped next day and came fast .</t>
+          <t>Exactly as described- brand new iPhone</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1359,12 +1367,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Awesome she loves it and that’s all counts for me .</t>
+          <t>Great product.  Fast delivery.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Purchased as a gift and she loves it thank you.</t>
+          <t>Phone was in excellent shape.  Works great.</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1377,16 +1385,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Excellent!</t>
+          <t>Broken screen on brand new phone</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Had one mark that’s barely visible. Excellent condition</t>
+          <t>Came brand new in a packaging. Screen has lines through it from start and needs screen replacement.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1395,12 +1403,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>still wrapped for christmass.so it hasn't been used by us yet</t>
+          <t>Phone for son</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>arrived very fast, packed very well. looks good</t>
+          <t>I bought this phone as a graduation present for my son. It works great. He really likes it!</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1413,12 +1421,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Perfect!</t>
+          <t>Nice phone</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Prompts responses and delivered just as agreed upon. Highly recommend!!!</t>
+          <t>Phone has some good battery life</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1431,12 +1439,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Iphone x</t>
+          <t>Good price</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Best Iphone ive used so far. Great battery life</t>
+          <t>New phone as described. Works great. Happy with my purchase.</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1449,12 +1457,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t xml:space="preserve">Great phone and great price! </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great phone.  Bought this as gift for my son - an upgrade from an iphone 5 - and he really loves it. </t>
+          <t xml:space="preserve">I did not want a huge phone but needed to upgrade... the iPhone 8 was my compromise and it has been great. I have been pleased 😀 </t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1467,16 +1475,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Love it!!!</t>
+          <t>Excellent product and better than described</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>It came in a timely manner. Fully unlocked and great value for the price</t>
+          <t>Looks like new, arrived a day early and took 5 minutes to set up.Love it.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1485,12 +1493,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Thank you</t>
+          <t>Good so far</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Seller is awesome. Very accommodating. I paid for the iphone and revived it the very next day!</t>
+          <t>I can’t fully rate this product yet because it’s a gift. The purchase was easy and shipping was fast.</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1503,12 +1511,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Best iPhone ever!!!</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>This phone looks ultra sleek. Battery life is amazing. The screen is absolutely gorgeous. Got no complaint with this phone whatsoever</t>
+          <t>Very great condition iPhone 8. I was very pleased and it work fine with my SIM card</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1521,12 +1529,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Great phone.</t>
+          <t>Lived up to expectations</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Great phone. Upgraded from an SE so much better than my old one. No aux jack is disappointing when no Bluetooth speakers are available for music.</t>
+          <t>This phone was shipped to me on a timely basis.  I’ve only had it for a short while but so far all functions seem to work very well.</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1539,12 +1547,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Good price for first day</t>
+          <t>As described, if not better.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nice price. Hope they make a plus size but this is the best phone in the market anyways !</t>
+          <t>Phone was in excellent condition, just what i needed for a second phone.</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1557,16 +1565,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>iPhone X 256</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Все как в объявлении. Телефон отличный. But battery, rear and front cameras may be changed</t>
+          <t>Got this phone for my Granddaughter, and she loves it.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1575,16 +1583,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Amazing</t>
+          <t>I am satisfied with my purchase, it is getting a usable signal through out my home Some other brands will not.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>This is an amazing, I loved it. Everyone can believe this saller.</t>
+          <t>Like new as advertised .Battery life is not very good</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1593,12 +1601,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Came in early and works perfectly.</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Just like new. Easy to setup from previous phone and works so much better. Definitely recommend.</t>
+          <t>Great phone. Nice up grade. Next up grade Iphone X. No scratches or dents. Perfect condition. Thanks again.</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1611,12 +1619,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Accurate to description. Great product</t>
+          <t>Great item, nicely priced.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Accurate to description. 10/10 quality. Shipped quickly. Best price on market. Would definitely buy again</t>
+          <t>Looks like new, battery capacity is 100% and product is still under warranty</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1629,12 +1637,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>iPhone received as expected</t>
+          <t>Excellent!</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">I got the one with “dents/scratches” and they were minor scuffs easily covered up with a case I was going to put on anyways. No scratches/cracks on the screen. Working great so far! </t>
+          <t>Brand new-never opened</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1647,12 +1655,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Great price</t>
+          <t>Great so far</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Got it quick amazing quality. No scratches or dents. </t>
+          <t>Phone came a day early. Hadn't had time to activate it yet so I don't know how good it works. I'll let you know.</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1665,12 +1673,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Deserves 10 stars</t>
+          <t>iPhone 8s</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>This phone surpassed my expectations. I’m sooo in love with it.</t>
+          <t>Great phone in perfect condition. Long battery life.</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1683,12 +1691,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Beautiful &amp; functional. Easy to use. A pleasure.</t>
+          <t>perfect condition, easy to use with att</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>It works &amp; looks &amp; feels like new!</t>
+          <t>just as described</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1701,16 +1709,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>Short battery</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>works pretty well for me. being used for almost 3 months without any problem</t>
+          <t>Good value for the money the battery is not as good as it should be it only operates at 89% capacity</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -1719,16 +1727,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Better than advertised </t>
+          <t>Good, but not perfect</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Excellent cosmetic condition. Cannot find any flaws. Battery is 82%. I guess that is ok. So far a great deal!</t>
+          <t>The phone was cosmetically excellent, bit the battery life was 76%</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -1737,16 +1745,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Excellent equipment</t>
+          <t>great phone</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>excellent equipment, the battery lasts little but the price is fair.</t>
+          <t>battery is good great value</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -1755,12 +1763,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Good quality and really nice design</t>
+          <t>Great!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>I have waited for it really long time and it is absolutely out of my expectations :)</t>
+          <t>Excellent condition, works the same as my iPhone 8 that I bought new from Apple. Thanks</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1773,16 +1781,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Great purchase</t>
+          <t>Very Pleased!  It is lightweight and has great features.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>This is a great phone. Worth the price.</t>
+          <t>Very pleased with the quality of this product.  The price was right!</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1791,12 +1799,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Close to new as is possible.</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Had to look extremely close to see if it was not new.  Battery life was 98%!  Flawless.</t>
+          <t>Works great, still a reliable phone.  Last one with a physical home button.</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1809,12 +1817,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Iphone X simply best phone I've owned over the past ten years</t>
+          <t>Great purchase</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Iphone X simply best phone I've owned over the past ten years</t>
+          <t>I purchased this as a gift that was given yesterday.   So far everything is as described and working wonderfully.  Looks almost new,  and the screen was not scratched.</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1827,16 +1835,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Got a dud</t>
+          <t>Lightweight with great features</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Screen was defective didn’t work.  Could happen to anyone I guess. Still waiting for my refund.</t>
+          <t>Work as intended. Like new.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1845,16 +1853,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Phone is block cannot be activated</t>
+          <t>Good Stuff!!</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The phone is blocked and cannot be activated for that reason it cannot be used because he has a unpaid account and I am left with your lost</t>
+          <t>Great phone just as described.  Very pleased!!!</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -1863,12 +1871,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>great price</t>
+          <t xml:space="preserve">Like new </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>good product and great price:)</t>
+          <t xml:space="preserve">Looks brand new. Came with a screen cover already attached. </t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -1881,16 +1889,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good product. </t>
+          <t>Great phone at a great price</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">The phone is great, except the battery doesn’t last very long. </t>
+          <t>Great refurbished phone. Works perfectly.</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1899,24 +1907,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">good solid product </t>
+          <t>Great working phone</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">nice phone - still learning to operate - quality is top notch - enjoying my i phone </t>
+          <t>The phone works great, but I almost wish I would have gotten the 8 plus now.  Going from a Samsung Note 5 to this was a huge change.</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Iphone 8</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Very good price, easy to use</t>
+        </is>
+      </c>
       <c r="D84" t="n">
         <v>5</v>
       </c>
@@ -1927,12 +1943,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Very satisfying</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>I am a happy buyer. The iphone x just as perfect as explained. Thanks man</t>
+          <t>Excellent price, battery long life.</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1945,16 +1961,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Does not sound fine for call</t>
+          <t>All good so far 😀</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cell phone does not work fine for make a call the voice sounds with too much noise</t>
+          <t>I was surprised that my iPhone 7 case could fit the iPhone 8 no problem 😀</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -1963,24 +1979,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Great product.</t>
+          <t>good phone at a reasonable cost</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Very easy to use, it serve’s my needs.</t>
+          <t>Good phone in great condition. We were very happy with it.</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>87</v>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The best Apple phone yet</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Great product my wife loves this phone</t>
+        </is>
+      </c>
       <c r="D88" t="n">
         <v>5</v>
       </c>
@@ -1991,16 +2015,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Good buy</t>
+          <t>Iphone 8</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Works excellent 👍🏽</t>
+          <t>Nice phone, so far, so good.  Skeptical about the Apple care warranty.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -2009,16 +2033,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Great phone great value</t>
+          <t>Good phone</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Great iphone</t>
+          <t>A good upgrade from my SE. Works well.</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -2027,16 +2051,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>It’s good</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>It worth the discount, the company are very good to send me a charger.</t>
+          <t>No need to buy the latest phone. Save money and buy this new phone</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2045,12 +2069,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Good value</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Very good product.</t>
+          <t>The iPhone 8 is in very good condition and works well and price was very good</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2061,8 +2085,16 @@
       <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Awesome sauce</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>It is a good cell phone</t>
+        </is>
+      </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
@@ -2071,8 +2103,16 @@
       <c r="A94" t="n">
         <v>93</v>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Phone works great!</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It works great, shipped reasonably fast and I love the color </t>
+        </is>
+      </c>
       <c r="D94" t="n">
         <v>5</v>
       </c>
@@ -2083,12 +2123,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Amazing !</t>
+          <t>Thumbs up!!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Upgraded from the iphone 6s plus and it feels and looks like a powerful machine ! I love it</t>
+          <t>Easy to use, not that different from my last iPhone, really like it</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2101,12 +2141,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>iPhone X 256GB</t>
+          <t>Satisfied</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>The iPhone was in perfect condition, very pleased. With this purchase!</t>
+          <t>Good deal</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2119,16 +2159,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Very pleased!</t>
+          <t xml:space="preserve">Good product. </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>I’m extremely happy with this purchase. The phone seems and feels new ( it was very well taken care of).</t>
+          <t xml:space="preserve">The screen is a little weird. It seems as if it was replaced not using an original Apple screen. </t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98">
@@ -2137,12 +2177,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>She Loves This Phone!</t>
+          <t>Big screen with fast response to commands</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>My wife loves the phone. She rates it 10 stars instead of 5</t>
+          <t>It's great.  I love it.</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2155,12 +2195,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>All good</t>
+          <t>It works!</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nice good phone like new good price</t>
+          <t>Happy that you got me out of a jam but I miss my stolen phone (11 pro max).</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2171,16 +2211,8 @@
       <c r="A100" t="n">
         <v>99</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Good working condition - though bought used</t>
-        </is>
-      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
         <v>5</v>
       </c>
@@ -2191,12 +2223,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pleased with my purchase</t>
+          <t>Good price and fast shipping.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>It’s a great product for the price. I’m very pleased.</t>
+          <t>Got the product I wanted in great shape and it go here fast.</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2209,12 +2241,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Great pricing</t>
+          <t>Lov it</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Worth the price. There were some minor light scratches on the screen but overall great condition for its price</t>
+          <t>Was really good quality and 😍 It</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2227,16 +2259,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Its okay but not worth the price</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Amazing .... Amazing company. Please buy from them and let them know to keep up the good job!</t>
+          <t>Phone works so that’s a plus, battery life is not so great. Not for the money though not one bit</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -2245,16 +2277,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>"Open box" condition</t>
+          <t>So far so good.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>it has small scratches on both sides. its ok but the ad didnt mentioned it</t>
+          <t>So far so good. We've only had the phone for a couple of weeks, but it seems to be in perfect working order.</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -2263,12 +2295,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>Good Price</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Reasonable price &amp; beautiful phone</t>
+          <t>good product compare to it's price</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2281,12 +2313,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>excellent product</t>
+          <t>Good shape</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Awesome product good price working very good  </t>
+          <t>Phone was packed well, is in good shape. Included earbuds.</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2299,12 +2331,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Great value</t>
+          <t>good product</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Great phone for price! Works perfectly. I’m very happy with purchase.</t>
+          <t>as good as a new phone so far</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2317,12 +2349,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Good deal</t>
+          <t>Great I phone. Well pleased. Thanks</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Great phone for the price I am very happy with my purchase</t>
+          <t>Working great👍</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2335,12 +2367,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>iPhone x</t>
+          <t>I phone 8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>The product came fast and it works wonderfully.</t>
+          <t>Easy setup. Works as described. Good value and product.</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2353,12 +2385,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Love it</t>
+          <t>Expectations fully met</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Grandson loves it</t>
+          <t>This phone has met all of my expectations.</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2371,12 +2403,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Love the no home button</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've had iphone 3,5,6,7. This is the best by far.  </t>
+          <t>tried three other phones from other dealers ,this place was great!!!sue</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2389,12 +2421,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Good Deal</t>
+          <t>Worked perfectly. Great deal!</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Much better than my Iphone 7</t>
+          <t>Worked perfectly. Great deal!</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2407,12 +2439,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GOOD ITEM</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GOT GREAT ITEMLOVE IT</t>
+          <t>It looks like new out of the box and probably half the cost</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2425,12 +2457,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Great Phone!!</t>
+          <t>Good choice</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Looks great! Works great! Thanks!!!</t>
+          <t>It works just fine</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2443,12 +2475,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Happy</t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Brand New and working great😊😊</t>
+          <t>Love it exactly what I needed</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2461,12 +2493,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>New iPhone</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Very nice phone</t>
+          <t>New product as described out of box. Like it came from store.</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2479,12 +2511,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Not sure what this question means</t>
+          <t>Cool functions, light weight</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thank u</t>
+          <t>Works perfectly</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2497,12 +2529,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Best iPhone yet!!</t>
+          <t xml:space="preserve">Came very quickly and works great! No complaints </t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2515,34 +2547,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Do not get this product!!!</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>The item came with a screen issue where the phone would ghost. The back of the phone was shattered aswell.</t>
+          <t>The iPhone works perfectly, I’m very happy with my purchase.</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>119</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Excellent interface but...</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>This is one of if not THE best phones on earth but... the issue with this phone for ME is twofold 1) it feels delicate because it’s basically all glass... so you’ll need a good case... 2) coming from a 6s plus the screen when watching Netflix, YouTube etcetera is notably smaller...  the latter being a big gripe for me. Beyond that it is a NOTABLE improvement over everything else.. camera for example is EXCELLENT.Read full review...</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2551,16 +2575,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fair Value for being used</t>
+          <t>Would do it again</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Had some scratches on the screen that were not seen in the pictures.</t>
+          <t>Excellent.  Looks and works good.</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -2569,12 +2593,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>iPhone X refurb</t>
+          <t>Great purchase!</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Good refurb job. Looks like a new screen. very little wear found. Working good.</t>
+          <t>I’m enjoying the phone. It was a great purchase.</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2585,16 +2609,8 @@
       <c r="A123" t="n">
         <v>122</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I’m not spending $1000 on no phone </t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Nice buy!</t>
-        </is>
-      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
         <v>5</v>
       </c>
@@ -2605,12 +2621,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>This product was purchase as a gift not for self use</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>Bought this for someone else</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2623,16 +2639,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Good product and no customer issues.</t>
+          <t>iPhone 8 great phone</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Good product and no customer issues.</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -2641,12 +2657,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Apple iPhone X</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Excellent product for the price Fully functional!</t>
+          <t>Small ad light</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2659,12 +2675,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Awesome product</t>
+          <t>Happy with the purchase!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Can’t wait till it deliver, thanks apple</t>
+          <t>It worked great for me!</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2677,12 +2693,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Great value</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>iPhone X is amazing.  Great value.  Good as new</t>
+          <t>Very nice product and my wife likes the phone. no complaints at all.</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2695,12 +2711,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>love the phone</t>
+          <t>good value for the money</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Awesome phone in very good condition</t>
+          <t>no problems</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2713,12 +2729,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Great iPhone!</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Awesome phone. Looks new and works great</t>
+          <t>I priced the same phone at AT&amp;T for $61 more. Very pleased with mybiPhone 8.</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2731,12 +2747,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Excellent Buy</t>
+          <t>Apple iPhone 8</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arrived quickly and works great. </t>
+          <t>Works great! No issues, inserted SIM card and started right up connecting to service without skipping a beat.</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -2749,16 +2765,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Works perfect</t>
+          <t>Very satisfied</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Nice product</t>
+          <t>Excellent value. No problems with this phone!</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -2767,12 +2783,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Great buy</t>
+          <t>Yep</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Will do more business</t>
+          <t>It’s a phone. It works for what I need it for: Ignoring phone calls and looking at memes.</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2785,12 +2801,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>IPHONE 8</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Very nice phone, I’m fully satisfied with this product. Will recommend.Thanks.</t>
+          <t>It does as expected for a replacement for my SE</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2803,34 +2819,26 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Excelent phone</t>
+          <t>false advertisement</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Works great</t>
+          <t>the phone was advertised as an att and straight talk phone but is a verizon phone and will not work with my sim card.</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
         <v>135</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Nice</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Should do better with the packaging</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -2839,12 +2847,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>needed to upgrade</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>It okay, very loud ringer, but not worth the money, but none of them are</t>
+          <t>what i needed</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2857,12 +2865,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Good phone</t>
+          <t>Perfect</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Overall this is a great phone</t>
+          <t>Thanks very good</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2875,12 +2883,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Great iPhone</t>
+          <t>Great product.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>The iPhone was better than described. Loving it right now.</t>
+          <t>Product as advertised. Happy customer.</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2893,12 +2901,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Iphone 8</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>You the best</t>
+          <t>Very nice phone.  Exactly as described.  Very happy with it.</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2911,12 +2919,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Perfect</t>
+          <t>As advertised</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Quick and easy, just like I expected!</t>
+          <t>Nice, shiny, new in sealed box. Very happy.</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -2929,12 +2937,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>I love it</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great </t>
+          <t>Was new, works perfectly!</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2947,12 +2955,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>iphonex</t>
+          <t>Iphone8</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Very nice works well</t>
+          <t>Works good</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2965,12 +2973,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Great phone</t>
+          <t>Thanks</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Very happy with my phone</t>
+          <t>Apple is usually pretty reliable product</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2983,12 +2991,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Awesome product</t>
+          <t>Good buy</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Great product works great</t>
+          <t>seems ok so far</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3001,12 +3009,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Good Phone fair price</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Love my new phone!!  Quick delivery!!</t>
+          <t>Glad I bought the phone!</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3019,16 +3027,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Very satisfied!</t>
+          <t>Good Product</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>great battery management and lightweight.</t>
+          <t>Works well.  Was able to transfer data easily.</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -3037,12 +3045,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Apple 10x unlocked for us cellular</t>
+          <t>Exaactly what we hoped for</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Came quick and exactly as described.  Works perfectly.  Thank you</t>
+          <t>This is exactly what we hoped we would get</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3055,12 +3063,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>iPhone x</t>
+          <t>Nice Phone.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Phone is in great condition! Thanks!</t>
+          <t>It's everything it should be, NICE!</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3073,34 +3081,26 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Review </t>
+          <t>Pristine, but defective battery.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very well used phoneI’m enjoying it right now </t>
+          <t>The battery was totally drained when it arrived. Battery will charge, but will be 1% charge in 2 hours.</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>150</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>4 stars</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Great product lmaooo</t>
-        </is>
-      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
@@ -3109,12 +3109,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>No surprises.</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Was delivered on time and was as described.</t>
+          <t>Great great product!</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3125,16 +3125,8 @@
       <c r="A153" t="n">
         <v>152</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>iPhone X review</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>It is a great phone. Does everything I need it to do :)</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
         <v>5</v>
       </c>
@@ -3145,34 +3137,26 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Good phone</t>
+          <t xml:space="preserve">From the beginning it has been unsatisfactory and I no longer use it’s </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Love it</t>
+          <t xml:space="preserve">I would not recommend this  iPhone to anyone. </t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
         <v>154</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Iphone x</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>The battery does not last. Fast it discharges it does not last 24 hours</t>
-        </is>
-      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -3181,12 +3165,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Works Fine!</t>
+          <t>Good value!</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Very Good!</t>
+          <t>Great phone! Battery gets me through the day (: Thank you</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3197,16 +3181,8 @@
       <c r="A157" t="n">
         <v>156</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Very good</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Thank you very much</t>
-        </is>
-      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
         <v>5</v>
       </c>
@@ -3215,8 +3191,16 @@
       <c r="A158" t="n">
         <v>157</v>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Great value</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Everything was as it should be, very satisfied</t>
+        </is>
+      </c>
       <c r="D158" t="n">
         <v>5</v>
       </c>
@@ -3225,16 +3209,8 @@
       <c r="A159" t="n">
         <v>158</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Very happy</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great very happy with this purchase.  Phone is just as described </t>
-        </is>
-      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
         <v>5</v>
       </c>
@@ -3245,12 +3221,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>GOOD PART SEND TO ME</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Good product</t>
+          <t>GOOD PART SEND TO ME</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3263,16 +3239,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>It was a replacement phone</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>I am happy so far.</t>
+          <t>They like Apple products.</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -3281,12 +3257,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Perfect phone</t>
+          <t>Thank you.</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Love it !!!!! It’s a great phone</t>
+          <t>Hopefully it works because it’s a Christmas gift thank you!</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3299,16 +3275,16 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compact,well done </t>
+          <t>Good condition, works great</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Handy ,</t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -3317,12 +3293,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Beauty phone</t>
+          <t>great value</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quick ship. Phone was perfect in my eyes. </t>
+          <t>great phone</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3335,16 +3311,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>JC</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>I don’t have enap money pay this time</t>
+          <t>No complaint just what I expected.</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -3353,16 +3329,16 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">I’m happy I </t>
+          <t>Good phone</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Worth the cost</t>
+          <t>I like my newer phone. It is more advanced than the previous one.</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -3371,12 +3347,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phone </t>
+          <t>Works</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Good deal. Jist took forever to get here </t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3387,16 +3363,8 @@
       <c r="A168" t="n">
         <v>167</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Great price</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
         <v>5</v>
       </c>
@@ -3407,16 +3375,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battery issues </t>
+          <t xml:space="preserve">Good product </t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>The battery is dead so quick.</t>
+          <t xml:space="preserve">Good product </t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
@@ -3425,12 +3393,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>iPhones</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>It is a very nice phone. It was just as owner described. Thank You</t>
+          <t>Works well, thank you!</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3443,32 +3411,24 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Love it</t>
+          <t xml:space="preserve">Love it </t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">I like the phone, it’s just what I was looking for. </t>
+          <t>Love it but problem wasn't explained very well</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
         <v>171</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Like it</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>I am really happy with my purchase</t>
-        </is>
-      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
         <v>5</v>
       </c>
@@ -3477,16 +3437,8 @@
       <c r="A173" t="n">
         <v>172</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Great phone</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Decent purchase beyond expectations</t>
-        </is>
-      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
         <v>5</v>
       </c>
@@ -3497,12 +3449,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Excellent</t>
+          <t>Perfect, it was as seen on the post. Great value for money I guess.</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Very good!</t>
+          <t>Excellent product as describe on the post.</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3513,8 +3465,16 @@
       <c r="A175" t="n">
         <v>174</v>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="D175" t="n">
         <v>5</v>
       </c>
@@ -3523,16 +3483,8 @@
       <c r="A176" t="n">
         <v>175</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Thanks!</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Thanks!</t>
-        </is>
-      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
         <v>5</v>
       </c>
@@ -3543,12 +3495,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>iPhone X new</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Good buy.</t>
+          <t>Nice phone! Love it!!</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3561,16 +3513,16 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>its just ok, too expensive</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>poor battery life</t>
+          <t>It is a great bargain</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -3579,12 +3531,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Satisfied. </t>
+          <t>Thumbs up.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">It was good. </t>
+          <t>Great product.</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3605,16 +3557,8 @@
       <c r="A181" t="n">
         <v>180</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Happy with the product</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>As expected</t>
-        </is>
-      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
         <v>5</v>
       </c>
@@ -3625,12 +3569,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>As promised</t>
+          <t>As advertised</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Perfect as promisedDelivery in 48 h including Sunday</t>
+          <t>Excellent purchase</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3641,8 +3585,16 @@
       <c r="A183" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>great phone</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>great phone.</t>
+        </is>
+      </c>
       <c r="D183" t="n">
         <v>5</v>
       </c>
@@ -3651,8 +3603,16 @@
       <c r="A184" t="n">
         <v>183</v>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Came as stated.</t>
+        </is>
+      </c>
       <c r="D184" t="n">
         <v>5</v>
       </c>
@@ -3663,12 +3623,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Great</t>
+          <t>I would buy another</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>+++</t>
+          <t>Just as described</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3681,24 +3641,32 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>that's very good</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>that's good</t>
+          <t>The product was as described!</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
         <v>186</v>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Happy</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Great deal.</t>
+        </is>
+      </c>
       <c r="D187" t="n">
         <v>5</v>
       </c>
@@ -3709,12 +3677,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Excellent product I like it</t>
+          <t>As promised! Thanks.</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shipped on time </t>
+          <t>As promised! Thanks.</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3725,8 +3693,16 @@
       <c r="A189" t="n">
         <v>188</v>
       </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Good Deal.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Good Deal.</t>
+        </is>
+      </c>
       <c r="D189" t="n">
         <v>5</v>
       </c>
@@ -3735,8 +3711,16 @@
       <c r="A190" t="n">
         <v>189</v>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Great product</t>
+        </is>
+      </c>
       <c r="D190" t="n">
         <v>5</v>
       </c>
@@ -3747,16 +3731,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Does not respond to messages. Does not send the product</t>
+          <t>Yes!</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Does not respond to messages. Does not send the product</t>
+          <t>It’s just what we expected.</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
@@ -3765,12 +3749,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Awesome phone Apple's Anniversary Phone Wow!!!</t>
+          <t>Solid</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Apple iPhone X, 10 yrs Apples been around love this anniversary Phone.</t>
+          <t>Exactly what I expected.</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3781,16 +3765,8 @@
       <c r="A193" t="n">
         <v>192</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>great purchase</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>so happy!</t>
-        </is>
-      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
         <v>5</v>
       </c>
@@ -3799,8 +3775,16 @@
       <c r="A194" t="n">
         <v>193</v>
       </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>I  WILL BUY AGAIN.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>VERY GOOD PRODUCT IGIVE 5 STAR</t>
+        </is>
+      </c>
       <c r="D194" t="n">
         <v>5</v>
       </c>
@@ -3811,12 +3795,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>For real</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>It’s a great phone.  Happy with everything</t>
+          <t>Awesome product!</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3829,16 +3813,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>It is working but it’s not loud speaker</t>
+          <t>Great phone</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -3847,12 +3831,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Love it</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Love it</t>
+          <t>Love the phone.</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3865,12 +3849,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Love it!!!</t>
+          <t>So far, so good!</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3883,12 +3867,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Awesome!</t>
+          <t>Its an iphone</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Better than expected</t>
+          <t>iPhone 8.  Enough said.</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3901,12 +3885,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Wonderful!</t>
+          <t>Fabulous</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>The best iPhone.Thanks.</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3919,16 +3903,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Very Pleased </t>
+          <t>Scam</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Great buy!!</t>
+          <t>This is a huge scam. Phone does not work or turn on. It is a waste of money!!</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3937,12 +3921,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>perfect!!!</t>
+          <t>i like the phone a lot</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>great iPhone x</t>
+          <t>the screen is great every thing works great</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -3955,16 +3939,16 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>iPhone x</t>
+          <t>iPhone 8</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>It's nice</t>
+          <t>Great cell phone</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -3973,16 +3957,16 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phone is tinny . </t>
+          <t xml:space="preserve">Came as advertised </t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Waste of money </t>
+          <t>Nice apple 8</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -3991,16 +3975,16 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Unlock</t>
+          <t>Works great</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Need unlock</t>
+          <t>Thank you. Works great</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
@@ -4009,16 +3993,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AWESOME</t>
+          <t>worked less than 30 days</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>great product I like to use iphone always</t>
+          <t>front microphone out</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4027,16 +4011,16 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Worth the $1000 + price!</t>
+          <t>Still evaluating</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>FaceID makes logging into websites and apps so incredibly convenient and this phone is super fast.</t>
+          <t>Letter P does not always work</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -4045,42 +4029,42 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Battery</t>
+          <t>Love it</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Hello, good morning, how many % is the battery health, is it unlocked for all American carriers?</t>
+          <t>Love it</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
         <v>208</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Crazy price!!</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>$4000??? Bhahahahahaha do you think we are stupid to think of buying this????????? I thought it’s kind of joke!!</t>
-        </is>
-      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
         <v>209</v>
       </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Perfect</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Perfect</t>
+        </is>
+      </c>
       <c r="D210" t="n">
         <v>5</v>
       </c>
@@ -4089,10 +4073,18 @@
       <c r="A211" t="n">
         <v>210</v>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Good buy</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Good price</t>
+        </is>
+      </c>
       <c r="D211" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -4101,12 +4093,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Two equal products</t>
+          <t>new as advertised</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>I would like to clarify a doubt.I saw two of your ads of the same product, is it the same product in both publications?</t>
+          <t>new as advertised</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4119,12 +4111,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>iphone x</t>
+          <t>everything matches</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Good price</t>
+          <t>I liked everything</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4137,12 +4129,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Great!</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Better then alliPhones</t>
+          <t>great!</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4155,12 +4147,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Fantastic</t>
+          <t>Exactly as described</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>No more computer......Iphone X is fast ...loveit</t>
+          <t>Exactly as described!</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4173,36 +4165,52 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Great phone!!!</t>
+          <t>I never got my item</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Love it!</t>
+          <t>I never got my item</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
         <v>216</v>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Different product than what is in the listing</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Okay first off the item listed above is clearly not an iphone 8 its a  apple watch so know your products before listing them but looks like a good product just make sure you know your listing are correct before you post themRead full review...</t>
+        </is>
+      </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
         <v>217</v>
       </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>iphone purchase</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>it's working fine? is it all good? can I change the settings to Portuguese?</t>
+        </is>
+      </c>
       <c r="D218" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -4211,12 +4219,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Great product</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>to Japan how many days delivery?</t>
+          <t>HeyIoved this product but it lagged alot in the beginning</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4229,12 +4237,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Steal</t>
+          <t>Amazing product</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Steal works good</t>
+          <t>This is amazing product</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4245,8 +4253,16 @@
       <c r="A221" t="n">
         <v>220</v>
       </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>GREAT</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>PERFECT</t>
+        </is>
+      </c>
       <c r="D221" t="n">
         <v>5</v>
       </c>
@@ -4255,10 +4271,18 @@
       <c r="A222" t="n">
         <v>221</v>
       </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Scammer</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Scammer</t>
+        </is>
+      </c>
       <c r="D222" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -4267,16 +4291,16 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>recibido iPhone 8</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Great iPhone X unlocked.</t>
+          <t>Se ve bien aún lo boy a probar</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
@@ -4285,12 +4309,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Very good</t>
+          <t>gud</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Fast y bueno</t>
+          <t>gudf</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4303,12 +4327,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>To expensive</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>This dude is crazy bro</t>
+          <t>went aa said</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4321,12 +4345,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Great buy</t>
+          <t>Awesome</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>I am please with this purchase</t>
+          <t>Working great</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4339,52 +4363,36 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scam </t>
+          <t>Very nice</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Scam alert</t>
+          <t>Very nice</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
         <v>227</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Scam</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Scammers</t>
-        </is>
-      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
         <v>228</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Un desastre</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>El vendedor tiene un pesimismo trato ! Muy mala atención todo rayado</t>
-        </is>
-      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
@@ -4393,12 +4401,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Excelente.</t>
+          <t>👍</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Excelente! Recomendo.</t>
+          <t>Great camera</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4411,12 +4419,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>I phone10</t>
+          <t>bargain</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Little higher in price, but considering no waiting, worth it.</t>
+          <t>bargain</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -4429,12 +4437,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Thanks.</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Thanks. Then spread the words about prize so that people can buy it. Prize is always negotiable.</t>
+          <t>Works good</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4447,16 +4455,16 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Buen protector de pantalla</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Muy buena presentación</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
@@ -4465,558 +4473,16 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>I like it.</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Good value to me.</t>
+          <t>good</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>234</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Muy buen producto</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Excelente</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>235</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muy bueno </t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelente producto </t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>236</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Buen estado</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buenísimo estado </t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>237</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Disruptivo</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Espectacular producto, se siente como un celular completamente renovado, con características que, a pesar de estar en “beta”, funcionan espectacular.100% recomendable.</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>238</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelente </t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Todo muy bien </t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>239</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>240</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excelente teléfono </t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Como nuevo y batería con porcentaje de vida alto </t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>241</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great product </t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Great deal</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>242</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genial </t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Súper bien un 89% de vida de batería 🔋, uno de los mejores no tengo queja del proveedor.</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>243</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Super </t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Very good</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>244</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>good!!!a+++</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>good!!!a+++</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>245</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Excelente producto</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Hasta ahora excelente la perdormance, ya migre todos los datos de mi iPhone 7, lo q quisiera perder es una foto de las partes q me enviaron para comparar con lo q me llegó, en el camino abrieron mi paqueteRead full review...</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>246</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bueno </t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bueno </t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>247</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Muito bom</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Muito bom</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>248</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>otimo aparelho</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>muito bom, sem defeitos conforme descrição</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>249</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Нормальный айфон</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Рекомендую всё ОК</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>250</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Iphone X</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Excelent iphone!!!</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>251</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Buenarticulo</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Buen artículo muy buena duración de bateria</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>252</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Very good</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>I like it</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>253</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>V. Good</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>5 stars</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>254</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Muy buen producto!!</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Exelente estado!!</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>255</v>
-      </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>256</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Great</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excellent </t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>257</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excellent deal </t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>258</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Very very good</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>259</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Отличный продавец! Рекомендую!</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Отличная цена. Быстрое отправление.</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>260</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Descripción del producto</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>En descripción del producto no menciona que sea en oro 24k solo menciona iPhone X gris. Y no meGenera confianza que me manden lo de las imágenes</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>261</v>
-      </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>262</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Awesome!</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Awesome!</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>263</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>gps does not work.</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gps do aparelho não funciona </t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>264</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>con man</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>con man</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
